--- a/出席表2025年下半.xlsx
+++ b/出席表2025年下半.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\James\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Main Console\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="6754" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2025-7~12出席表'!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="466">
   <si>
     <t>姓名</t>
   </si>
@@ -1279,18 +1279,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>洪政輝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>游陵珠</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>許世英</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1359,10 +1351,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>蘇明蓁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>吳明智</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1387,10 +1375,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>陳冠諠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>李元貞</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1456,18 +1440,66 @@
   </si>
   <si>
     <t>新泰教會2025年7~12月出席表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡庭瑋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡瑄恩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈渠智</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫雪子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎建全</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳科宏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紀蓁蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>許元昭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>許富翔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃怡萍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>許禾樂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>許以樂</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2114,16 +2146,16 @@
       <selection activeCell="F126" sqref="F126:F131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.75"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.4609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.15234375" customWidth="1"/>
-    <col min="4" max="4" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.84375" customWidth="1"/>
-    <col min="6" max="6" width="13.15234375" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.875" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2143,7 +2175,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2163,7 +2195,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2183,7 +2215,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2203,7 +2235,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -2223,7 +2255,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -2243,7 +2275,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2263,7 +2295,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2283,7 +2315,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -2301,7 +2333,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -2321,7 +2353,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -2341,7 +2373,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -2361,7 +2393,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -2381,7 +2413,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -2401,7 +2433,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
@@ -2421,7 +2453,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -2441,7 +2473,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
@@ -2461,7 +2493,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -2481,7 +2513,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -2501,7 +2533,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -2521,7 +2553,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -2541,7 +2573,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -2561,7 +2593,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -2581,7 +2613,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -2601,7 +2633,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -2619,7 +2651,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -2639,7 +2671,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
@@ -2659,7 +2691,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
@@ -2679,7 +2711,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -2699,7 +2731,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
@@ -2719,7 +2751,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>59</v>
       </c>
@@ -2739,7 +2771,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>61</v>
       </c>
@@ -2757,7 +2789,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>63</v>
       </c>
@@ -2775,7 +2807,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>65</v>
       </c>
@@ -2793,7 +2825,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>67</v>
       </c>
@@ -2813,7 +2845,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>70</v>
       </c>
@@ -2833,7 +2865,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>72</v>
       </c>
@@ -2853,7 +2885,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>74</v>
       </c>
@@ -2873,7 +2905,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>76</v>
       </c>
@@ -2893,7 +2925,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>78</v>
       </c>
@@ -2911,7 +2943,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>79</v>
       </c>
@@ -2931,7 +2963,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>81</v>
       </c>
@@ -2951,7 +2983,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>83</v>
       </c>
@@ -2971,7 +3003,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>85</v>
       </c>
@@ -2991,7 +3023,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>86</v>
       </c>
@@ -3011,7 +3043,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>88</v>
       </c>
@@ -3031,7 +3063,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>90</v>
       </c>
@@ -3051,7 +3083,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>92</v>
       </c>
@@ -3071,7 +3103,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>93</v>
       </c>
@@ -3091,7 +3123,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>95</v>
       </c>
@@ -3111,7 +3143,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>97</v>
       </c>
@@ -3131,7 +3163,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>99</v>
       </c>
@@ -3151,7 +3183,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>101</v>
       </c>
@@ -3169,7 +3201,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>102</v>
       </c>
@@ -3189,7 +3221,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
@@ -3209,7 +3241,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>106</v>
       </c>
@@ -3229,7 +3261,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>108</v>
       </c>
@@ -3249,7 +3281,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>110</v>
       </c>
@@ -3269,7 +3301,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>112</v>
       </c>
@@ -3289,7 +3321,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>114</v>
       </c>
@@ -3307,7 +3339,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="33.450000000000003">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>116</v>
       </c>
@@ -3327,7 +3359,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>117</v>
       </c>
@@ -3347,7 +3379,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>119</v>
       </c>
@@ -3367,7 +3399,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>120</v>
       </c>
@@ -3387,7 +3419,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>121</v>
       </c>
@@ -3407,7 +3439,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>123</v>
       </c>
@@ -3427,7 +3459,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>124</v>
       </c>
@@ -3447,7 +3479,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="33.450000000000003">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>126</v>
       </c>
@@ -3467,7 +3499,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>129</v>
       </c>
@@ -3487,7 +3519,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>132</v>
       </c>
@@ -3507,7 +3539,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>133</v>
       </c>
@@ -3527,7 +3559,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>135</v>
       </c>
@@ -3545,7 +3577,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>137</v>
       </c>
@@ -3565,7 +3597,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>140</v>
       </c>
@@ -3585,7 +3617,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>141</v>
       </c>
@@ -3605,7 +3637,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>142</v>
       </c>
@@ -3625,7 +3657,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>144</v>
       </c>
@@ -3645,7 +3677,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>146</v>
       </c>
@@ -3665,7 +3697,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="33.450000000000003">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>148</v>
       </c>
@@ -3685,7 +3717,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>151</v>
       </c>
@@ -3705,7 +3737,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>152</v>
       </c>
@@ -3725,7 +3757,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>155</v>
       </c>
@@ -3745,7 +3777,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>156</v>
       </c>
@@ -3765,7 +3797,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>157</v>
       </c>
@@ -3785,7 +3817,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>158</v>
       </c>
@@ -3805,7 +3837,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>160</v>
       </c>
@@ -3825,7 +3857,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>161</v>
       </c>
@@ -3845,7 +3877,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>249</v>
       </c>
@@ -3865,7 +3897,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>250</v>
       </c>
@@ -3885,7 +3917,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>252</v>
       </c>
@@ -3905,7 +3937,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>254</v>
       </c>
@@ -3925,7 +3957,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>256</v>
       </c>
@@ -3945,7 +3977,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>257</v>
       </c>
@@ -3965,7 +3997,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>259</v>
       </c>
@@ -3985,7 +4017,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>260</v>
       </c>
@@ -4005,7 +4037,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>262</v>
       </c>
@@ -4025,7 +4057,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>264</v>
       </c>
@@ -4045,7 +4077,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>265</v>
       </c>
@@ -4065,7 +4097,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>266</v>
       </c>
@@ -4085,7 +4117,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>267</v>
       </c>
@@ -4105,7 +4137,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>268</v>
       </c>
@@ -4125,7 +4157,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>270</v>
       </c>
@@ -4143,7 +4175,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>272</v>
       </c>
@@ -4163,7 +4195,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>274</v>
       </c>
@@ -4183,7 +4215,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>275</v>
       </c>
@@ -4203,7 +4235,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>276</v>
       </c>
@@ -4223,7 +4255,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>277</v>
       </c>
@@ -4243,7 +4275,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>278</v>
       </c>
@@ -4263,7 +4295,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>280</v>
       </c>
@@ -4283,7 +4315,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>282</v>
       </c>
@@ -4303,7 +4335,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>283</v>
       </c>
@@ -4323,7 +4355,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>285</v>
       </c>
@@ -4343,7 +4375,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>286</v>
       </c>
@@ -4363,7 +4395,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>288</v>
       </c>
@@ -4383,7 +4415,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>290</v>
       </c>
@@ -4403,7 +4435,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>292</v>
       </c>
@@ -4423,7 +4455,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>294</v>
       </c>
@@ -4443,7 +4475,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>322</v>
       </c>
@@ -4463,7 +4495,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>323</v>
       </c>
@@ -4483,7 +4515,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>325</v>
       </c>
@@ -4503,7 +4535,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>326</v>
       </c>
@@ -4523,7 +4555,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>329</v>
       </c>
@@ -4541,7 +4573,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>330</v>
       </c>
@@ -4561,7 +4593,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>332</v>
       </c>
@@ -4581,7 +4613,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>333</v>
       </c>
@@ -4601,7 +4633,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>334</v>
       </c>
@@ -4621,7 +4653,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>340</v>
       </c>
@@ -4641,7 +4673,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>342</v>
       </c>
@@ -4661,7 +4693,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>345</v>
       </c>
@@ -4681,7 +4713,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>347</v>
       </c>
@@ -4701,7 +4733,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>350</v>
       </c>
@@ -4736,19 +4768,19 @@
       <selection activeCell="B23" sqref="B23:B142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.61328125" defaultRowHeight="28" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.15234375" customWidth="1"/>
-    <col min="3" max="28" width="5.61328125" customWidth="1"/>
+    <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="28" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="32.15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L1" s="16" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="15" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="2" spans="1:28" s="15" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14">
@@ -4830,7 +4862,7 @@
         <v>44374</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -4864,7 +4896,7 @@
       <c r="AA3" s="18"/>
       <c r="AB3" s="18"/>
     </row>
-    <row r="4" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="4" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -4898,7 +4930,7 @@
       <c r="AA4" s="18"/>
       <c r="AB4" s="18"/>
     </row>
-    <row r="5" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="5" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -4932,7 +4964,7 @@
       <c r="AA5" s="18"/>
       <c r="AB5" s="18"/>
     </row>
-    <row r="6" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="6" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -4966,7 +4998,7 @@
       <c r="AA6" s="18"/>
       <c r="AB6" s="18"/>
     </row>
-    <row r="7" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -5000,7 +5032,7 @@
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
     </row>
-    <row r="8" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="8" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>6</v>
       </c>
@@ -5034,7 +5066,7 @@
       <c r="AA8" s="18"/>
       <c r="AB8" s="18"/>
     </row>
-    <row r="9" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="9" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>7</v>
       </c>
@@ -5068,7 +5100,7 @@
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
     </row>
-    <row r="10" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="10" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>8</v>
       </c>
@@ -5102,7 +5134,7 @@
       <c r="AA10" s="18"/>
       <c r="AB10" s="18"/>
     </row>
-    <row r="11" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="11" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>9</v>
       </c>
@@ -5136,7 +5168,7 @@
       <c r="AA11" s="18"/>
       <c r="AB11" s="18"/>
     </row>
-    <row r="12" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>10</v>
       </c>
@@ -5170,7 +5202,7 @@
       <c r="AA12" s="18"/>
       <c r="AB12" s="18"/>
     </row>
-    <row r="13" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="13" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>11</v>
       </c>
@@ -5204,7 +5236,7 @@
       <c r="AA13" s="18"/>
       <c r="AB13" s="18"/>
     </row>
-    <row r="14" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="14" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>12</v>
       </c>
@@ -5238,7 +5270,7 @@
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
     </row>
-    <row r="15" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="15" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>13</v>
       </c>
@@ -5272,7 +5304,7 @@
       <c r="AA15" s="18"/>
       <c r="AB15" s="18"/>
     </row>
-    <row r="16" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="16" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>14</v>
       </c>
@@ -5306,7 +5338,7 @@
       <c r="AA16" s="18"/>
       <c r="AB16" s="18"/>
     </row>
-    <row r="17" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="17" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>15</v>
       </c>
@@ -5340,7 +5372,7 @@
       <c r="AA17" s="18"/>
       <c r="AB17" s="18"/>
     </row>
-    <row r="18" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="18" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>16</v>
       </c>
@@ -5374,7 +5406,7 @@
       <c r="AA18" s="18"/>
       <c r="AB18" s="18"/>
     </row>
-    <row r="19" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="19" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>17</v>
       </c>
@@ -5408,7 +5440,7 @@
       <c r="AA19" s="18"/>
       <c r="AB19" s="18"/>
     </row>
-    <row r="20" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="20" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>18</v>
       </c>
@@ -5442,7 +5474,7 @@
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
     </row>
-    <row r="21" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="21" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>19</v>
       </c>
@@ -5476,7 +5508,7 @@
       <c r="AA21" s="18"/>
       <c r="AB21" s="18"/>
     </row>
-    <row r="22" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="22" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>20</v>
       </c>
@@ -5510,7 +5542,7 @@
       <c r="AA22" s="18"/>
       <c r="AB22" s="18"/>
     </row>
-    <row r="23" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>21</v>
       </c>
@@ -5544,8 +5576,8 @@
       <c r="AA23" s="18"/>
       <c r="AB23" s="18"/>
     </row>
-    <row r="24" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1"/>
-    <row r="25" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="24" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
       <c r="C25" s="22">
@@ -5627,7 +5659,7 @@
         <v>44374</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="26" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>22</v>
       </c>
@@ -5661,7 +5693,7 @@
       <c r="AA26" s="18"/>
       <c r="AB26" s="18"/>
     </row>
-    <row r="27" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="27" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>23</v>
       </c>
@@ -5695,7 +5727,7 @@
       <c r="AA27" s="18"/>
       <c r="AB27" s="18"/>
     </row>
-    <row r="28" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="28" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>24</v>
       </c>
@@ -5729,7 +5761,7 @@
       <c r="AA28" s="18"/>
       <c r="AB28" s="18"/>
     </row>
-    <row r="29" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="29" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>25</v>
       </c>
@@ -5763,7 +5795,7 @@
       <c r="AA29" s="18"/>
       <c r="AB29" s="18"/>
     </row>
-    <row r="30" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="30" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>26</v>
       </c>
@@ -5797,7 +5829,7 @@
       <c r="AA30" s="18"/>
       <c r="AB30" s="18"/>
     </row>
-    <row r="31" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="31" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>27</v>
       </c>
@@ -5831,7 +5863,7 @@
       <c r="AA31" s="18"/>
       <c r="AB31" s="18"/>
     </row>
-    <row r="32" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="32" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>28</v>
       </c>
@@ -5865,7 +5897,7 @@
       <c r="AA32" s="18"/>
       <c r="AB32" s="18"/>
     </row>
-    <row r="33" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="33" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>29</v>
       </c>
@@ -5899,7 +5931,7 @@
       <c r="AA33" s="18"/>
       <c r="AB33" s="18"/>
     </row>
-    <row r="34" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="34" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>30</v>
       </c>
@@ -5933,7 +5965,7 @@
       <c r="AA34" s="18"/>
       <c r="AB34" s="18"/>
     </row>
-    <row r="35" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="35" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>31</v>
       </c>
@@ -5967,7 +5999,7 @@
       <c r="AA35" s="18"/>
       <c r="AB35" s="18"/>
     </row>
-    <row r="36" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="36" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>32</v>
       </c>
@@ -6001,7 +6033,7 @@
       <c r="AA36" s="18"/>
       <c r="AB36" s="18"/>
     </row>
-    <row r="37" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="37" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>33</v>
       </c>
@@ -6035,7 +6067,7 @@
       <c r="AA37" s="18"/>
       <c r="AB37" s="18"/>
     </row>
-    <row r="38" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="38" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>34</v>
       </c>
@@ -6069,7 +6101,7 @@
       <c r="AA38" s="18"/>
       <c r="AB38" s="18"/>
     </row>
-    <row r="39" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="39" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>35</v>
       </c>
@@ -6103,7 +6135,7 @@
       <c r="AA39" s="18"/>
       <c r="AB39" s="18"/>
     </row>
-    <row r="40" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="40" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>36</v>
       </c>
@@ -6137,7 +6169,7 @@
       <c r="AA40" s="18"/>
       <c r="AB40" s="18"/>
     </row>
-    <row r="41" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="41" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>37</v>
       </c>
@@ -6171,7 +6203,7 @@
       <c r="AA41" s="18"/>
       <c r="AB41" s="18"/>
     </row>
-    <row r="42" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="42" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>38</v>
       </c>
@@ -6205,7 +6237,7 @@
       <c r="AA42" s="18"/>
       <c r="AB42" s="18"/>
     </row>
-    <row r="43" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="43" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>39</v>
       </c>
@@ -6239,7 +6271,7 @@
       <c r="AA43" s="18"/>
       <c r="AB43" s="18"/>
     </row>
-    <row r="44" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="44" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>40</v>
       </c>
@@ -6273,7 +6305,7 @@
       <c r="AA44" s="18"/>
       <c r="AB44" s="18"/>
     </row>
-    <row r="45" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="45" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>41</v>
       </c>
@@ -6307,8 +6339,8 @@
       <c r="AA45" s="18"/>
       <c r="AB45" s="18"/>
     </row>
-    <row r="46" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1"/>
-    <row r="47" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="46" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22">
@@ -6390,7 +6422,7 @@
         <v>44374</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="48" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
         <v>43</v>
       </c>
@@ -6424,7 +6456,7 @@
       <c r="AA48" s="18"/>
       <c r="AB48" s="18"/>
     </row>
-    <row r="49" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="49" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>44</v>
       </c>
@@ -6458,7 +6490,7 @@
       <c r="AA49" s="18"/>
       <c r="AB49" s="18"/>
     </row>
-    <row r="50" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="50" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
         <v>45</v>
       </c>
@@ -6492,7 +6524,7 @@
       <c r="AA50" s="18"/>
       <c r="AB50" s="18"/>
     </row>
-    <row r="51" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="51" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
         <v>46</v>
       </c>
@@ -6526,7 +6558,7 @@
       <c r="AA51" s="18"/>
       <c r="AB51" s="18"/>
     </row>
-    <row r="52" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="52" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
         <v>47</v>
       </c>
@@ -6560,7 +6592,7 @@
       <c r="AA52" s="18"/>
       <c r="AB52" s="18"/>
     </row>
-    <row r="53" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="53" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
         <v>48</v>
       </c>
@@ -6594,7 +6626,7 @@
       <c r="AA53" s="18"/>
       <c r="AB53" s="18"/>
     </row>
-    <row r="54" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="54" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
         <v>49</v>
       </c>
@@ -6628,7 +6660,7 @@
       <c r="AA54" s="18"/>
       <c r="AB54" s="18"/>
     </row>
-    <row r="55" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="55" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
         <v>50</v>
       </c>
@@ -6662,7 +6694,7 @@
       <c r="AA55" s="18"/>
       <c r="AB55" s="18"/>
     </row>
-    <row r="56" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="56" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="17">
         <v>51</v>
       </c>
@@ -6696,7 +6728,7 @@
       <c r="AA56" s="18"/>
       <c r="AB56" s="18"/>
     </row>
-    <row r="57" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="57" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="17">
         <v>52</v>
       </c>
@@ -6730,7 +6762,7 @@
       <c r="AA57" s="18"/>
       <c r="AB57" s="18"/>
     </row>
-    <row r="58" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="58" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17">
         <v>53</v>
       </c>
@@ -6764,7 +6796,7 @@
       <c r="AA58" s="18"/>
       <c r="AB58" s="18"/>
     </row>
-    <row r="59" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="59" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="17">
         <v>54</v>
       </c>
@@ -6798,7 +6830,7 @@
       <c r="AA59" s="18"/>
       <c r="AB59" s="18"/>
     </row>
-    <row r="60" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="60" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="17">
         <v>55</v>
       </c>
@@ -6832,7 +6864,7 @@
       <c r="AA60" s="18"/>
       <c r="AB60" s="18"/>
     </row>
-    <row r="61" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="61" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="17">
         <v>56</v>
       </c>
@@ -6866,7 +6898,7 @@
       <c r="AA61" s="18"/>
       <c r="AB61" s="18"/>
     </row>
-    <row r="62" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="62" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="17">
         <v>57</v>
       </c>
@@ -6900,7 +6932,7 @@
       <c r="AA62" s="18"/>
       <c r="AB62" s="18"/>
     </row>
-    <row r="63" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="63" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17">
         <v>58</v>
       </c>
@@ -6934,7 +6966,7 @@
       <c r="AA63" s="18"/>
       <c r="AB63" s="18"/>
     </row>
-    <row r="64" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="64" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>59</v>
       </c>
@@ -6968,7 +7000,7 @@
       <c r="AA64" s="18"/>
       <c r="AB64" s="18"/>
     </row>
-    <row r="65" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="65" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>60</v>
       </c>
@@ -7002,7 +7034,7 @@
       <c r="AA65" s="18"/>
       <c r="AB65" s="18"/>
     </row>
-    <row r="66" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="66" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>61</v>
       </c>
@@ -7036,7 +7068,7 @@
       <c r="AA66" s="18"/>
       <c r="AB66" s="18"/>
     </row>
-    <row r="67" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="67" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>62</v>
       </c>
@@ -7070,8 +7102,8 @@
       <c r="AA67" s="18"/>
       <c r="AB67" s="18"/>
     </row>
-    <row r="68" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1"/>
-    <row r="69" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="68" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="21"/>
       <c r="C69" s="22">
@@ -7153,7 +7185,7 @@
         <v>44374</v>
       </c>
     </row>
-    <row r="70" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="70" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
         <v>63</v>
       </c>
@@ -7187,7 +7219,7 @@
       <c r="AA70" s="18"/>
       <c r="AB70" s="18"/>
     </row>
-    <row r="71" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="71" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
         <v>64</v>
       </c>
@@ -7221,7 +7253,7 @@
       <c r="AA71" s="18"/>
       <c r="AB71" s="18"/>
     </row>
-    <row r="72" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="72" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17">
         <v>65</v>
       </c>
@@ -7255,7 +7287,7 @@
       <c r="AA72" s="18"/>
       <c r="AB72" s="18"/>
     </row>
-    <row r="73" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="73" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17">
         <v>66</v>
       </c>
@@ -7289,7 +7321,7 @@
       <c r="AA73" s="18"/>
       <c r="AB73" s="18"/>
     </row>
-    <row r="74" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="74" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>67</v>
       </c>
@@ -7323,7 +7355,7 @@
       <c r="AA74" s="18"/>
       <c r="AB74" s="18"/>
     </row>
-    <row r="75" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="75" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="17">
         <v>68</v>
       </c>
@@ -7357,7 +7389,7 @@
       <c r="AA75" s="18"/>
       <c r="AB75" s="18"/>
     </row>
-    <row r="76" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="76" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17">
         <v>69</v>
       </c>
@@ -7391,7 +7423,7 @@
       <c r="AA76" s="18"/>
       <c r="AB76" s="18"/>
     </row>
-    <row r="77" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="77" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17">
         <v>70</v>
       </c>
@@ -7425,7 +7457,7 @@
       <c r="AA77" s="18"/>
       <c r="AB77" s="18"/>
     </row>
-    <row r="78" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="78" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17">
         <v>71</v>
       </c>
@@ -7459,7 +7491,7 @@
       <c r="AA78" s="18"/>
       <c r="AB78" s="18"/>
     </row>
-    <row r="79" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="79" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17">
         <v>72</v>
       </c>
@@ -7493,7 +7525,7 @@
       <c r="AA79" s="18"/>
       <c r="AB79" s="18"/>
     </row>
-    <row r="80" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="80" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="17">
         <v>73</v>
       </c>
@@ -7527,7 +7559,7 @@
       <c r="AA80" s="18"/>
       <c r="AB80" s="18"/>
     </row>
-    <row r="81" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="81" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="17">
         <v>74</v>
       </c>
@@ -7561,7 +7593,7 @@
       <c r="AA81" s="18"/>
       <c r="AB81" s="18"/>
     </row>
-    <row r="82" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="82" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="17">
         <v>75</v>
       </c>
@@ -7595,7 +7627,7 @@
       <c r="AA82" s="18"/>
       <c r="AB82" s="18"/>
     </row>
-    <row r="83" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="83" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="17">
         <v>76</v>
       </c>
@@ -7629,7 +7661,7 @@
       <c r="AA83" s="18"/>
       <c r="AB83" s="18"/>
     </row>
-    <row r="84" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="84" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="17">
         <v>77</v>
       </c>
@@ -7663,7 +7695,7 @@
       <c r="AA84" s="18"/>
       <c r="AB84" s="18"/>
     </row>
-    <row r="85" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="85" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="17">
         <v>78</v>
       </c>
@@ -7697,7 +7729,7 @@
       <c r="AA85" s="18"/>
       <c r="AB85" s="18"/>
     </row>
-    <row r="86" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="86" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="17">
         <v>79</v>
       </c>
@@ -7731,7 +7763,7 @@
       <c r="AA86" s="18"/>
       <c r="AB86" s="18"/>
     </row>
-    <row r="87" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="87" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="17">
         <v>80</v>
       </c>
@@ -7765,7 +7797,7 @@
       <c r="AA87" s="18"/>
       <c r="AB87" s="18"/>
     </row>
-    <row r="88" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="88" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="17">
         <v>81</v>
       </c>
@@ -7799,7 +7831,7 @@
       <c r="AA88" s="18"/>
       <c r="AB88" s="18"/>
     </row>
-    <row r="89" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="89" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="17">
         <v>82</v>
       </c>
@@ -7833,8 +7865,8 @@
       <c r="AA89" s="18"/>
       <c r="AB89" s="18"/>
     </row>
-    <row r="90" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1"/>
-    <row r="91" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="90" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="20"/>
       <c r="B91" s="21"/>
       <c r="C91" s="22">
@@ -7916,7 +7948,7 @@
         <v>44374</v>
       </c>
     </row>
-    <row r="92" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="92" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="17">
         <v>83</v>
       </c>
@@ -7950,7 +7982,7 @@
       <c r="AA92" s="18"/>
       <c r="AB92" s="18"/>
     </row>
-    <row r="93" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="93" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="17">
         <v>84</v>
       </c>
@@ -7984,7 +8016,7 @@
       <c r="AA93" s="18"/>
       <c r="AB93" s="18"/>
     </row>
-    <row r="94" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="94" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="17">
         <v>85</v>
       </c>
@@ -8018,7 +8050,7 @@
       <c r="AA94" s="18"/>
       <c r="AB94" s="18"/>
     </row>
-    <row r="95" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="95" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="17">
         <v>86</v>
       </c>
@@ -8052,7 +8084,7 @@
       <c r="AA95" s="18"/>
       <c r="AB95" s="18"/>
     </row>
-    <row r="96" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="96" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17">
         <v>87</v>
       </c>
@@ -8086,7 +8118,7 @@
       <c r="AA96" s="18"/>
       <c r="AB96" s="18"/>
     </row>
-    <row r="97" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="97" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="17">
         <v>88</v>
       </c>
@@ -8120,7 +8152,7 @@
       <c r="AA97" s="18"/>
       <c r="AB97" s="18"/>
     </row>
-    <row r="98" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="98" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="17">
         <v>89</v>
       </c>
@@ -8154,7 +8186,7 @@
       <c r="AA98" s="18"/>
       <c r="AB98" s="18"/>
     </row>
-    <row r="99" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="99" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="17">
         <v>90</v>
       </c>
@@ -8188,7 +8220,7 @@
       <c r="AA99" s="18"/>
       <c r="AB99" s="18"/>
     </row>
-    <row r="100" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="100" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17">
         <v>91</v>
       </c>
@@ -8222,7 +8254,7 @@
       <c r="AA100" s="18"/>
       <c r="AB100" s="18"/>
     </row>
-    <row r="101" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="101" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="17">
         <v>92</v>
       </c>
@@ -8256,7 +8288,7 @@
       <c r="AA101" s="18"/>
       <c r="AB101" s="18"/>
     </row>
-    <row r="102" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="102" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="17">
         <v>93</v>
       </c>
@@ -8290,7 +8322,7 @@
       <c r="AA102" s="18"/>
       <c r="AB102" s="18"/>
     </row>
-    <row r="103" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="103" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="17">
         <v>94</v>
       </c>
@@ -8324,7 +8356,7 @@
       <c r="AA103" s="18"/>
       <c r="AB103" s="18"/>
     </row>
-    <row r="104" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="104" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="17">
         <v>95</v>
       </c>
@@ -8358,7 +8390,7 @@
       <c r="AA104" s="18"/>
       <c r="AB104" s="18"/>
     </row>
-    <row r="105" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="105" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="17">
         <v>96</v>
       </c>
@@ -8392,7 +8424,7 @@
       <c r="AA105" s="18"/>
       <c r="AB105" s="18"/>
     </row>
-    <row r="106" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="106" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="17">
         <v>97</v>
       </c>
@@ -8426,7 +8458,7 @@
       <c r="AA106" s="18"/>
       <c r="AB106" s="18"/>
     </row>
-    <row r="107" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="107" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="17">
         <v>98</v>
       </c>
@@ -8460,7 +8492,7 @@
       <c r="AA107" s="18"/>
       <c r="AB107" s="18"/>
     </row>
-    <row r="108" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="108" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="17">
         <v>99</v>
       </c>
@@ -8494,7 +8526,7 @@
       <c r="AA108" s="18"/>
       <c r="AB108" s="18"/>
     </row>
-    <row r="109" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="109" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="17">
         <v>100</v>
       </c>
@@ -8528,7 +8560,7 @@
       <c r="AA109" s="18"/>
       <c r="AB109" s="18"/>
     </row>
-    <row r="110" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="110" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="17">
         <v>101</v>
       </c>
@@ -8562,7 +8594,7 @@
       <c r="AA110" s="18"/>
       <c r="AB110" s="18"/>
     </row>
-    <row r="111" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="111" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="17">
         <v>102</v>
       </c>
@@ -8596,8 +8628,8 @@
       <c r="AA111" s="18"/>
       <c r="AB111" s="18"/>
     </row>
-    <row r="112" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1"/>
-    <row r="113" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="112" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="113" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="20"/>
       <c r="B113" s="21"/>
       <c r="C113" s="22">
@@ -8679,7 +8711,7 @@
         <v>44374</v>
       </c>
     </row>
-    <row r="114" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="114" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="17">
         <v>103</v>
       </c>
@@ -8713,7 +8745,7 @@
       <c r="AA114" s="18"/>
       <c r="AB114" s="18"/>
     </row>
-    <row r="115" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="115" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="17">
         <v>104</v>
       </c>
@@ -8747,7 +8779,7 @@
       <c r="AA115" s="18"/>
       <c r="AB115" s="18"/>
     </row>
-    <row r="116" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="116" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="17">
         <v>105</v>
       </c>
@@ -8781,7 +8813,7 @@
       <c r="AA116" s="18"/>
       <c r="AB116" s="18"/>
     </row>
-    <row r="117" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="117" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17">
         <v>106</v>
       </c>
@@ -8815,7 +8847,7 @@
       <c r="AA117" s="18"/>
       <c r="AB117" s="18"/>
     </row>
-    <row r="118" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="118" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17">
         <v>107</v>
       </c>
@@ -8849,7 +8881,7 @@
       <c r="AA118" s="18"/>
       <c r="AB118" s="18"/>
     </row>
-    <row r="119" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="119" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="17">
         <v>108</v>
       </c>
@@ -8883,7 +8915,7 @@
       <c r="AA119" s="18"/>
       <c r="AB119" s="18"/>
     </row>
-    <row r="120" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="120" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17">
         <v>109</v>
       </c>
@@ -8917,7 +8949,7 @@
       <c r="AA120" s="18"/>
       <c r="AB120" s="18"/>
     </row>
-    <row r="121" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="121" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17">
         <v>110</v>
       </c>
@@ -8951,7 +8983,7 @@
       <c r="AA121" s="18"/>
       <c r="AB121" s="18"/>
     </row>
-    <row r="122" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="122" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="17">
         <v>111</v>
       </c>
@@ -8985,7 +9017,7 @@
       <c r="AA122" s="18"/>
       <c r="AB122" s="18"/>
     </row>
-    <row r="123" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="123" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="17">
         <v>112</v>
       </c>
@@ -9019,7 +9051,7 @@
       <c r="AA123" s="18"/>
       <c r="AB123" s="18"/>
     </row>
-    <row r="124" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="124" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="17">
         <v>113</v>
       </c>
@@ -9053,7 +9085,7 @@
       <c r="AA124" s="18"/>
       <c r="AB124" s="18"/>
     </row>
-    <row r="125" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="125" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="17">
         <v>114</v>
       </c>
@@ -9087,7 +9119,7 @@
       <c r="AA125" s="18"/>
       <c r="AB125" s="18"/>
     </row>
-    <row r="126" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="126" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="17">
         <v>115</v>
       </c>
@@ -9121,7 +9153,7 @@
       <c r="AA126" s="18"/>
       <c r="AB126" s="18"/>
     </row>
-    <row r="127" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="127" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="17">
         <v>116</v>
       </c>
@@ -9155,7 +9187,7 @@
       <c r="AA127" s="18"/>
       <c r="AB127" s="18"/>
     </row>
-    <row r="128" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="128" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="17">
         <v>117</v>
       </c>
@@ -9189,7 +9221,7 @@
       <c r="AA128" s="18"/>
       <c r="AB128" s="18"/>
     </row>
-    <row r="129" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="129" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="17">
         <v>118</v>
       </c>
@@ -9223,7 +9255,7 @@
       <c r="AA129" s="18"/>
       <c r="AB129" s="18"/>
     </row>
-    <row r="130" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="130" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="17">
         <v>119</v>
       </c>
@@ -9257,7 +9289,7 @@
       <c r="AA130" s="18"/>
       <c r="AB130" s="18"/>
     </row>
-    <row r="131" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="131" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="17">
         <v>120</v>
       </c>
@@ -9291,7 +9323,7 @@
       <c r="AA131" s="18"/>
       <c r="AB131" s="18"/>
     </row>
-    <row r="132" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="132" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="17">
         <v>121</v>
       </c>
@@ -9325,7 +9357,7 @@
       <c r="AA132" s="18"/>
       <c r="AB132" s="18"/>
     </row>
-    <row r="133" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="133" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="17">
         <v>122</v>
       </c>
@@ -9359,8 +9391,8 @@
       <c r="AA133" s="18"/>
       <c r="AB133" s="18"/>
     </row>
-    <row r="134" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1"/>
-    <row r="135" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="134" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="20"/>
       <c r="B135" s="21"/>
       <c r="C135" s="22">
@@ -9442,7 +9474,7 @@
         <v>44374</v>
       </c>
     </row>
-    <row r="136" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="136" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="17">
         <v>123</v>
       </c>
@@ -9476,7 +9508,7 @@
       <c r="AA136" s="18"/>
       <c r="AB136" s="18"/>
     </row>
-    <row r="137" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="137" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="17">
         <v>124</v>
       </c>
@@ -9510,7 +9542,7 @@
       <c r="AA137" s="18"/>
       <c r="AB137" s="18"/>
     </row>
-    <row r="138" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="138" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="17">
         <v>125</v>
       </c>
@@ -9544,7 +9576,7 @@
       <c r="AA138" s="18"/>
       <c r="AB138" s="18"/>
     </row>
-    <row r="139" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="139" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="17">
         <v>126</v>
       </c>
@@ -9578,7 +9610,7 @@
       <c r="AA139" s="18"/>
       <c r="AB139" s="18"/>
     </row>
-    <row r="140" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="140" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="17">
         <v>127</v>
       </c>
@@ -9612,7 +9644,7 @@
       <c r="AA140" s="18"/>
       <c r="AB140" s="18"/>
     </row>
-    <row r="141" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="141" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="17">
         <v>128</v>
       </c>
@@ -9646,7 +9678,7 @@
       <c r="AA141" s="18"/>
       <c r="AB141" s="18"/>
     </row>
-    <row r="142" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="142" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="17">
         <v>129</v>
       </c>
@@ -9680,7 +9712,7 @@
       <c r="AA142" s="18"/>
       <c r="AB142" s="18"/>
     </row>
-    <row r="143" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="143" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="17">
         <v>130</v>
       </c>
@@ -9712,7 +9744,7 @@
       <c r="AA143" s="18"/>
       <c r="AB143" s="18"/>
     </row>
-    <row r="144" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="144" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="17">
         <v>131</v>
       </c>
@@ -9744,7 +9776,7 @@
       <c r="AA144" s="18"/>
       <c r="AB144" s="18"/>
     </row>
-    <row r="145" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="145" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17">
         <v>132</v>
       </c>
@@ -9776,7 +9808,7 @@
       <c r="AA145" s="18"/>
       <c r="AB145" s="18"/>
     </row>
-    <row r="146" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="146" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="17">
         <v>133</v>
       </c>
@@ -9808,7 +9840,7 @@
       <c r="AA146" s="18"/>
       <c r="AB146" s="18"/>
     </row>
-    <row r="147" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="147" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17">
         <v>134</v>
       </c>
@@ -9840,7 +9872,7 @@
       <c r="AA147" s="18"/>
       <c r="AB147" s="18"/>
     </row>
-    <row r="148" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="148" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="17">
         <v>135</v>
       </c>
@@ -9872,7 +9904,7 @@
       <c r="AA148" s="18"/>
       <c r="AB148" s="18"/>
     </row>
-    <row r="149" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="149" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17">
         <v>136</v>
       </c>
@@ -9904,7 +9936,7 @@
       <c r="AA149" s="18"/>
       <c r="AB149" s="18"/>
     </row>
-    <row r="150" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="150" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="17">
         <v>137</v>
       </c>
@@ -9936,7 +9968,7 @@
       <c r="AA150" s="18"/>
       <c r="AB150" s="18"/>
     </row>
-    <row r="151" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="151" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17">
         <v>138</v>
       </c>
@@ -9968,7 +10000,7 @@
       <c r="AA151" s="18"/>
       <c r="AB151" s="18"/>
     </row>
-    <row r="152" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="152" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="17">
         <v>139</v>
       </c>
@@ -10000,7 +10032,7 @@
       <c r="AA152" s="18"/>
       <c r="AB152" s="18"/>
     </row>
-    <row r="153" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="153" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17">
         <v>140</v>
       </c>
@@ -10032,7 +10064,7 @@
       <c r="AA153" s="18"/>
       <c r="AB153" s="18"/>
     </row>
-    <row r="154" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="154" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="17">
         <v>141</v>
       </c>
@@ -10064,7 +10096,7 @@
       <c r="AA154" s="18"/>
       <c r="AB154" s="18"/>
     </row>
-    <row r="155" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="155" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="17">
         <v>142</v>
       </c>
@@ -10096,8 +10128,8 @@
       <c r="AA155" s="18"/>
       <c r="AB155" s="18"/>
     </row>
-    <row r="156" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1"/>
-    <row r="157" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="156" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="20"/>
       <c r="B157" s="21"/>
       <c r="C157" s="22">
@@ -10179,7 +10211,7 @@
         <v>44374</v>
       </c>
     </row>
-    <row r="158" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="158" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="17">
         <v>143</v>
       </c>
@@ -10211,7 +10243,7 @@
       <c r="AA158" s="18"/>
       <c r="AB158" s="18"/>
     </row>
-    <row r="159" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="159" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="17">
         <v>144</v>
       </c>
@@ -10243,7 +10275,7 @@
       <c r="AA159" s="18"/>
       <c r="AB159" s="18"/>
     </row>
-    <row r="160" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="160" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="17">
         <v>145</v>
       </c>
@@ -10275,7 +10307,7 @@
       <c r="AA160" s="18"/>
       <c r="AB160" s="18"/>
     </row>
-    <row r="161" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="161" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="17">
         <v>146</v>
       </c>
@@ -10307,7 +10339,7 @@
       <c r="AA161" s="18"/>
       <c r="AB161" s="18"/>
     </row>
-    <row r="162" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="162" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17">
         <v>147</v>
       </c>
@@ -10339,7 +10371,7 @@
       <c r="AA162" s="18"/>
       <c r="AB162" s="18"/>
     </row>
-    <row r="163" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="163" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17">
         <v>148</v>
       </c>
@@ -10371,7 +10403,7 @@
       <c r="AA163" s="18"/>
       <c r="AB163" s="18"/>
     </row>
-    <row r="164" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="164" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="17">
         <v>149</v>
       </c>
@@ -10403,7 +10435,7 @@
       <c r="AA164" s="18"/>
       <c r="AB164" s="18"/>
     </row>
-    <row r="165" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="165" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="17">
         <v>150</v>
       </c>
@@ -10435,7 +10467,7 @@
       <c r="AA165" s="18"/>
       <c r="AB165" s="18"/>
     </row>
-    <row r="166" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="166" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="17">
         <v>151</v>
       </c>
@@ -10467,7 +10499,7 @@
       <c r="AA166" s="18"/>
       <c r="AB166" s="18"/>
     </row>
-    <row r="167" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="167" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="17">
         <v>152</v>
       </c>
@@ -10499,7 +10531,7 @@
       <c r="AA167" s="18"/>
       <c r="AB167" s="18"/>
     </row>
-    <row r="168" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="168" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="17">
         <v>153</v>
       </c>
@@ -10531,7 +10563,7 @@
       <c r="AA168" s="18"/>
       <c r="AB168" s="18"/>
     </row>
-    <row r="169" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="17">
         <v>154</v>
       </c>
@@ -10563,7 +10595,7 @@
       <c r="AA169" s="18"/>
       <c r="AB169" s="18"/>
     </row>
-    <row r="170" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="17">
         <v>155</v>
       </c>
@@ -10595,7 +10627,7 @@
       <c r="AA170" s="18"/>
       <c r="AB170" s="18"/>
     </row>
-    <row r="171" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="171" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="17">
         <v>156</v>
       </c>
@@ -10627,7 +10659,7 @@
       <c r="AA171" s="18"/>
       <c r="AB171" s="18"/>
     </row>
-    <row r="172" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="172" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="17">
         <v>157</v>
       </c>
@@ -10659,7 +10691,7 @@
       <c r="AA172" s="18"/>
       <c r="AB172" s="18"/>
     </row>
-    <row r="173" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="173" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="17">
         <v>158</v>
       </c>
@@ -10691,7 +10723,7 @@
       <c r="AA173" s="18"/>
       <c r="AB173" s="18"/>
     </row>
-    <row r="174" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="174" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="17">
         <v>159</v>
       </c>
@@ -10723,7 +10755,7 @@
       <c r="AA174" s="18"/>
       <c r="AB174" s="18"/>
     </row>
-    <row r="175" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="175" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="17">
         <v>160</v>
       </c>
@@ -10755,7 +10787,7 @@
       <c r="AA175" s="18"/>
       <c r="AB175" s="18"/>
     </row>
-    <row r="176" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="176" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="17">
         <v>161</v>
       </c>
@@ -10787,7 +10819,7 @@
       <c r="AA176" s="18"/>
       <c r="AB176" s="18"/>
     </row>
-    <row r="177" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="177" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="17">
         <v>162</v>
       </c>
@@ -10819,8 +10851,8 @@
       <c r="AA177" s="18"/>
       <c r="AB177" s="18"/>
     </row>
-    <row r="178" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1"/>
-    <row r="179" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="178" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="179" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="20"/>
       <c r="B179" s="21"/>
       <c r="C179" s="22">
@@ -10902,7 +10934,7 @@
         <v>44374</v>
       </c>
     </row>
-    <row r="180" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="180" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="17">
         <v>163</v>
       </c>
@@ -10934,7 +10966,7 @@
       <c r="AA180" s="18"/>
       <c r="AB180" s="18"/>
     </row>
-    <row r="181" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="181" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="17">
         <v>164</v>
       </c>
@@ -10966,7 +10998,7 @@
       <c r="AA181" s="18"/>
       <c r="AB181" s="18"/>
     </row>
-    <row r="182" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="182" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="17">
         <v>165</v>
       </c>
@@ -10998,7 +11030,7 @@
       <c r="AA182" s="18"/>
       <c r="AB182" s="18"/>
     </row>
-    <row r="183" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="183" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="17">
         <v>166</v>
       </c>
@@ -11030,7 +11062,7 @@
       <c r="AA183" s="18"/>
       <c r="AB183" s="18"/>
     </row>
-    <row r="184" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="184" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="17">
         <v>167</v>
       </c>
@@ -11062,7 +11094,7 @@
       <c r="AA184" s="18"/>
       <c r="AB184" s="18"/>
     </row>
-    <row r="185" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="185" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="17">
         <v>168</v>
       </c>
@@ -11094,7 +11126,7 @@
       <c r="AA185" s="18"/>
       <c r="AB185" s="18"/>
     </row>
-    <row r="186" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="186" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="17">
         <v>169</v>
       </c>
@@ -11126,7 +11158,7 @@
       <c r="AA186" s="18"/>
       <c r="AB186" s="18"/>
     </row>
-    <row r="187" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="187" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="17">
         <v>170</v>
       </c>
@@ -11158,7 +11190,7 @@
       <c r="AA187" s="18"/>
       <c r="AB187" s="18"/>
     </row>
-    <row r="188" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="188" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="17">
         <v>171</v>
       </c>
@@ -11190,7 +11222,7 @@
       <c r="AA188" s="18"/>
       <c r="AB188" s="18"/>
     </row>
-    <row r="189" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="189" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="17">
         <v>172</v>
       </c>
@@ -11222,7 +11254,7 @@
       <c r="AA189" s="18"/>
       <c r="AB189" s="18"/>
     </row>
-    <row r="190" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="190" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="17">
         <v>173</v>
       </c>
@@ -11254,7 +11286,7 @@
       <c r="AA190" s="18"/>
       <c r="AB190" s="18"/>
     </row>
-    <row r="191" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="191" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="17">
         <v>174</v>
       </c>
@@ -11286,7 +11318,7 @@
       <c r="AA191" s="18"/>
       <c r="AB191" s="18"/>
     </row>
-    <row r="192" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="192" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="17">
         <v>175</v>
       </c>
@@ -11318,7 +11350,7 @@
       <c r="AA192" s="18"/>
       <c r="AB192" s="18"/>
     </row>
-    <row r="193" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="193" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="17">
         <v>176</v>
       </c>
@@ -11350,7 +11382,7 @@
       <c r="AA193" s="18"/>
       <c r="AB193" s="18"/>
     </row>
-    <row r="194" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="194" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="17">
         <v>177</v>
       </c>
@@ -11382,7 +11414,7 @@
       <c r="AA194" s="18"/>
       <c r="AB194" s="18"/>
     </row>
-    <row r="195" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="195" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="17">
         <v>178</v>
       </c>
@@ -11414,7 +11446,7 @@
       <c r="AA195" s="18"/>
       <c r="AB195" s="18"/>
     </row>
-    <row r="196" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="196" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="17">
         <v>179</v>
       </c>
@@ -11446,7 +11478,7 @@
       <c r="AA196" s="18"/>
       <c r="AB196" s="18"/>
     </row>
-    <row r="197" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="197" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="17">
         <v>180</v>
       </c>
@@ -11478,7 +11510,7 @@
       <c r="AA197" s="18"/>
       <c r="AB197" s="18"/>
     </row>
-    <row r="198" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="198" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="17">
         <v>181</v>
       </c>
@@ -11510,7 +11542,7 @@
       <c r="AA198" s="18"/>
       <c r="AB198" s="18"/>
     </row>
-    <row r="199" spans="1:28" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="199" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="17">
         <v>182</v>
       </c>
@@ -11551,25 +11583,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC178"/>
+  <dimension ref="A1:AC172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.61328125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="12.61328125" style="28" customWidth="1"/>
-    <col min="3" max="29" width="5.61328125" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="28" customWidth="1"/>
+    <col min="3" max="29" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="32.15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:29" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L1" s="23" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="34" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="34" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="B2" s="31"/>
       <c r="C2" s="33">
@@ -11654,12 +11686,12 @@
         <v>46026</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30">
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -11689,13 +11721,13 @@
       <c r="AB3" s="18"/>
       <c r="AC3" s="18"/>
     </row>
-    <row r="4" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="4" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -11725,13 +11757,13 @@
       <c r="AB4" s="18"/>
       <c r="AC4" s="18"/>
     </row>
-    <row r="5" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="5" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
         <f t="shared" ref="A5:A21" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -11761,13 +11793,13 @@
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
     </row>
-    <row r="6" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="6" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -11797,7 +11829,7 @@
       <c r="AB6" s="18"/>
       <c r="AC6" s="18"/>
     </row>
-    <row r="7" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -11833,7 +11865,7 @@
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
     </row>
-    <row r="8" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="8" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -11869,7 +11901,7 @@
       <c r="AB8" s="18"/>
       <c r="AC8" s="18"/>
     </row>
-    <row r="9" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="9" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -11905,7 +11937,7 @@
       <c r="AB9" s="18"/>
       <c r="AC9" s="18"/>
     </row>
-    <row r="10" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="10" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -11941,7 +11973,7 @@
       <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
     </row>
-    <row r="11" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="11" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -11977,7 +12009,7 @@
       <c r="AB11" s="18"/>
       <c r="AC11" s="18"/>
     </row>
-    <row r="12" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <f>A11+1</f>
         <v>10</v>
@@ -12013,13 +12045,13 @@
       <c r="AB12" s="18"/>
       <c r="AC12" s="18"/>
     </row>
-    <row r="13" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="13" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -12049,7 +12081,7 @@
       <c r="AB13" s="18"/>
       <c r="AC13" s="18"/>
     </row>
-    <row r="14" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="14" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -12085,7 +12117,7 @@
       <c r="AB14" s="18"/>
       <c r="AC14" s="18"/>
     </row>
-    <row r="15" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="15" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -12121,7 +12153,7 @@
       <c r="AB15" s="18"/>
       <c r="AC15" s="18"/>
     </row>
-    <row r="16" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="16" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -12157,7 +12189,7 @@
       <c r="AB16" s="18"/>
       <c r="AC16" s="18"/>
     </row>
-    <row r="17" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="17" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -12193,7 +12225,7 @@
       <c r="AB17" s="18"/>
       <c r="AC17" s="18"/>
     </row>
-    <row r="18" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="18" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -12229,7 +12261,7 @@
       <c r="AB18" s="18"/>
       <c r="AC18" s="18"/>
     </row>
-    <row r="19" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="19" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -12265,7 +12297,7 @@
       <c r="AB19" s="18"/>
       <c r="AC19" s="18"/>
     </row>
-    <row r="20" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="20" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -12301,7 +12333,7 @@
       <c r="AB20" s="18"/>
       <c r="AC20" s="18"/>
     </row>
-    <row r="21" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="21" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -12337,7 +12369,7 @@
       <c r="AB21" s="18"/>
       <c r="AC21" s="18"/>
     </row>
-    <row r="22" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="22" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30">
         <f>A21+1</f>
         <v>20</v>
@@ -12373,7 +12405,7 @@
       <c r="AB22" s="18"/>
       <c r="AC22" s="18"/>
     </row>
-    <row r="23" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30">
         <f>A22+1</f>
         <v>21</v>
@@ -12409,7 +12441,7 @@
       <c r="AB23" s="18"/>
       <c r="AC23" s="18"/>
     </row>
-    <row r="24" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="24" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30">
         <f t="shared" ref="A24:A41" si="1">A23+1</f>
         <v>22</v>
@@ -12445,7 +12477,7 @@
       <c r="AB24" s="18"/>
       <c r="AC24" s="18"/>
     </row>
-    <row r="25" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="25" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -12481,7 +12513,7 @@
       <c r="AB25" s="18"/>
       <c r="AC25" s="18"/>
     </row>
-    <row r="26" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="26" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -12517,7 +12549,7 @@
       <c r="AB26" s="18"/>
       <c r="AC26" s="18"/>
     </row>
-    <row r="27" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="27" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -12553,7 +12585,7 @@
       <c r="AB27" s="18"/>
       <c r="AC27" s="18"/>
     </row>
-    <row r="28" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="28" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -12589,7 +12621,7 @@
       <c r="AB28" s="18"/>
       <c r="AC28" s="18"/>
     </row>
-    <row r="29" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="29" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -12625,7 +12657,7 @@
       <c r="AB29" s="18"/>
       <c r="AC29" s="18"/>
     </row>
-    <row r="30" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="30" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -12661,7 +12693,7 @@
       <c r="AB30" s="18"/>
       <c r="AC30" s="18"/>
     </row>
-    <row r="31" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="31" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -12697,7 +12729,7 @@
       <c r="AB31" s="18"/>
       <c r="AC31" s="18"/>
     </row>
-    <row r="32" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="32" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -12733,7 +12765,7 @@
       <c r="AB32" s="18"/>
       <c r="AC32" s="18"/>
     </row>
-    <row r="33" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="33" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -12769,7 +12801,7 @@
       <c r="AB33" s="18"/>
       <c r="AC33" s="18"/>
     </row>
-    <row r="34" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="34" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -12805,7 +12837,7 @@
       <c r="AB34" s="18"/>
       <c r="AC34" s="18"/>
     </row>
-    <row r="35" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="35" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -12841,13 +12873,13 @@
       <c r="AB35" s="18"/>
       <c r="AC35" s="18"/>
     </row>
-    <row r="36" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="36" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <f>A35+1</f>
         <v>34</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -12877,7 +12909,7 @@
       <c r="AB36" s="18"/>
       <c r="AC36" s="18"/>
     </row>
-    <row r="37" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="37" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <f>A36+1</f>
         <v>35</v>
@@ -12913,7 +12945,7 @@
       <c r="AB37" s="18"/>
       <c r="AC37" s="18"/>
     </row>
-    <row r="38" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="38" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -12949,7 +12981,7 @@
       <c r="AB38" s="18"/>
       <c r="AC38" s="18"/>
     </row>
-    <row r="39" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="39" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -12985,13 +13017,13 @@
       <c r="AB39" s="18"/>
       <c r="AC39" s="18"/>
     </row>
-    <row r="40" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="40" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -13021,7 +13053,7 @@
       <c r="AB40" s="18"/>
       <c r="AC40" s="18"/>
     </row>
-    <row r="41" spans="1:29" s="19" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+    <row r="41" spans="1:29" s="19" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -13057,7 +13089,7 @@
       <c r="AB41" s="18"/>
       <c r="AC41" s="18"/>
     </row>
-    <row r="42" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="42" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <f>A41+1</f>
         <v>40</v>
@@ -13093,7 +13125,7 @@
       <c r="AB42" s="18"/>
       <c r="AC42" s="18"/>
     </row>
-    <row r="43" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="43" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <f>A42+1</f>
         <v>41</v>
@@ -13129,13 +13161,13 @@
       <c r="AB43" s="18"/>
       <c r="AC43" s="18"/>
     </row>
-    <row r="44" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="44" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <f t="shared" ref="A44:A60" si="2">A43+1</f>
         <v>42</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -13165,13 +13197,13 @@
       <c r="AB44" s="18"/>
       <c r="AC44" s="18"/>
     </row>
-    <row r="45" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="45" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -13201,13 +13233,13 @@
       <c r="AB45" s="18"/>
       <c r="AC45" s="18"/>
     </row>
-    <row r="46" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="46" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
@@ -13237,13 +13269,13 @@
       <c r="AB46" s="18"/>
       <c r="AC46" s="18"/>
     </row>
-    <row r="47" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="47" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -13273,13 +13305,13 @@
       <c r="AB47" s="18"/>
       <c r="AC47" s="18"/>
     </row>
-    <row r="48" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="48" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <f>A47+1</f>
         <v>46</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -13309,13 +13341,13 @@
       <c r="AB48" s="18"/>
       <c r="AC48" s="18"/>
     </row>
-    <row r="49" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="49" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -13345,7 +13377,7 @@
       <c r="AB49" s="18"/>
       <c r="AC49" s="18"/>
     </row>
-    <row r="50" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="50" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <f>A49+1</f>
         <v>48</v>
@@ -13381,7 +13413,7 @@
       <c r="AB50" s="18"/>
       <c r="AC50" s="18"/>
     </row>
-    <row r="51" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="51" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -13417,7 +13449,7 @@
       <c r="AB51" s="18"/>
       <c r="AC51" s="18"/>
     </row>
-    <row r="52" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="52" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -13453,7 +13485,7 @@
       <c r="AB52" s="18"/>
       <c r="AC52" s="18"/>
     </row>
-    <row r="53" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="53" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -13489,7 +13521,7 @@
       <c r="AB53" s="18"/>
       <c r="AC53" s="18"/>
     </row>
-    <row r="54" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="54" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -13525,7 +13557,7 @@
       <c r="AB54" s="18"/>
       <c r="AC54" s="18"/>
     </row>
-    <row r="55" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="55" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -13561,13 +13593,13 @@
       <c r="AB55" s="18"/>
       <c r="AC55" s="18"/>
     </row>
-    <row r="56" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="56" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
@@ -13597,7 +13629,7 @@
       <c r="AB56" s="18"/>
       <c r="AC56" s="18"/>
     </row>
-    <row r="57" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="57" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -13633,7 +13665,7 @@
       <c r="AB57" s="18"/>
       <c r="AC57" s="18"/>
     </row>
-    <row r="58" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="58" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -13669,7 +13701,7 @@
       <c r="AB58" s="18"/>
       <c r="AC58" s="18"/>
     </row>
-    <row r="59" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="59" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="30">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -13705,7 +13737,7 @@
       <c r="AB59" s="18"/>
       <c r="AC59" s="18"/>
     </row>
-    <row r="60" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="60" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="30">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -13741,13 +13773,13 @@
       <c r="AB60" s="18"/>
       <c r="AC60" s="18"/>
     </row>
-    <row r="61" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="61" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="30">
         <f>A60+1</f>
         <v>59</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -13777,7 +13809,7 @@
       <c r="AB61" s="18"/>
       <c r="AC61" s="18"/>
     </row>
-    <row r="62" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="62" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="30">
         <f>A61+1</f>
         <v>60</v>
@@ -13813,7 +13845,7 @@
       <c r="AB62" s="18"/>
       <c r="AC62" s="18"/>
     </row>
-    <row r="63" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="63" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="30">
         <f t="shared" ref="A63:A76" si="3">A62+1</f>
         <v>61</v>
@@ -13849,7 +13881,7 @@
       <c r="AB63" s="18"/>
       <c r="AC63" s="18"/>
     </row>
-    <row r="64" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="64" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -13885,7 +13917,7 @@
       <c r="AB64" s="18"/>
       <c r="AC64" s="18"/>
     </row>
-    <row r="65" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="65" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="30">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -13921,7 +13953,7 @@
       <c r="AB65" s="18"/>
       <c r="AC65" s="18"/>
     </row>
-    <row r="66" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="66" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -13957,7 +13989,7 @@
       <c r="AB66" s="18"/>
       <c r="AC66" s="18"/>
     </row>
-    <row r="67" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="67" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="30">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -13993,7 +14025,7 @@
       <c r="AB67" s="18"/>
       <c r="AC67" s="18"/>
     </row>
-    <row r="68" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="68" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="30">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -14029,7 +14061,7 @@
       <c r="AB68" s="18"/>
       <c r="AC68" s="18"/>
     </row>
-    <row r="69" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="69" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="30">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -14065,13 +14097,13 @@
       <c r="AB69" s="18"/>
       <c r="AC69" s="18"/>
     </row>
-    <row r="70" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="70" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="30">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -14101,7 +14133,7 @@
       <c r="AB70" s="18"/>
       <c r="AC70" s="18"/>
     </row>
-    <row r="71" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="71" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="30">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -14137,7 +14169,7 @@
       <c r="AB71" s="18"/>
       <c r="AC71" s="18"/>
     </row>
-    <row r="72" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="72" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="30">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -14173,7 +14205,7 @@
       <c r="AB72" s="18"/>
       <c r="AC72" s="18"/>
     </row>
-    <row r="73" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="73" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="30">
         <f>A72+1</f>
         <v>71</v>
@@ -14209,13 +14241,13 @@
       <c r="AB73" s="18"/>
       <c r="AC73" s="18"/>
     </row>
-    <row r="74" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="74" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="30">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
@@ -14245,13 +14277,13 @@
       <c r="AB74" s="18"/>
       <c r="AC74" s="18"/>
     </row>
-    <row r="75" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="75" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="30">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
@@ -14281,13 +14313,13 @@
       <c r="AB75" s="18"/>
       <c r="AC75" s="18"/>
     </row>
-    <row r="76" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="76" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="30">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
@@ -14317,7 +14349,7 @@
       <c r="AB76" s="18"/>
       <c r="AC76" s="18"/>
     </row>
-    <row r="77" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="77" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="30">
         <f>A76+1</f>
         <v>75</v>
@@ -14353,13 +14385,13 @@
       <c r="AB77" s="18"/>
       <c r="AC77" s="18"/>
     </row>
-    <row r="78" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="78" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="30">
         <f>A77+1</f>
         <v>76</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
@@ -14389,13 +14421,13 @@
       <c r="AB78" s="18"/>
       <c r="AC78" s="18"/>
     </row>
-    <row r="79" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="79" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="30">
         <f>A78+1</f>
         <v>77</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
@@ -14425,7 +14457,7 @@
       <c r="AB79" s="18"/>
       <c r="AC79" s="18"/>
     </row>
-    <row r="80" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="80" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="30">
         <f>A79+1</f>
         <v>78</v>
@@ -14461,9 +14493,9 @@
       <c r="AB80" s="18"/>
       <c r="AC80" s="18"/>
     </row>
-    <row r="81" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="81" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="30">
-        <f t="shared" ref="A81:A98" si="4">A80+1</f>
+        <f t="shared" ref="A81:A94" si="4">A80+1</f>
         <v>79</v>
       </c>
       <c r="B81" s="26" t="s">
@@ -14497,13 +14529,13 @@
       <c r="AB81" s="18"/>
       <c r="AC81" s="18"/>
     </row>
-    <row r="82" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="82" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="30">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
@@ -14533,13 +14565,13 @@
       <c r="AB82" s="18"/>
       <c r="AC82" s="18"/>
     </row>
-    <row r="83" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="83" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="30">
-        <f t="shared" si="4"/>
+        <f>A82+1</f>
         <v>81</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
@@ -14569,13 +14601,13 @@
       <c r="AB83" s="18"/>
       <c r="AC83" s="18"/>
     </row>
-    <row r="84" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="84" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="30">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>440</v>
+        <v>135</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="18"/>
@@ -14605,15 +14637,15 @@
       <c r="AB84" s="18"/>
       <c r="AC84" s="18"/>
     </row>
-    <row r="85" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="85" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="30">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="C85" s="20"/>
+        <v>443</v>
+      </c>
+      <c r="C85" s="18"/>
       <c r="D85" s="18"/>
       <c r="E85" s="18"/>
       <c r="F85" s="18"/>
@@ -14641,13 +14673,13 @@
       <c r="AB85" s="18"/>
       <c r="AC85" s="18"/>
     </row>
-    <row r="86" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="86" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="30">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
@@ -14677,13 +14709,13 @@
       <c r="AB86" s="18"/>
       <c r="AC86" s="18"/>
     </row>
-    <row r="87" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="87" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="30">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C87" s="18"/>
       <c r="D87" s="18"/>
@@ -14713,13 +14745,13 @@
       <c r="AB87" s="18"/>
       <c r="AC87" s="18"/>
     </row>
-    <row r="88" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="88" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="30">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="B88" s="26" t="s">
-        <v>447</v>
+      <c r="B88" s="27" t="s">
+        <v>399</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
@@ -14749,13 +14781,13 @@
       <c r="AB88" s="18"/>
       <c r="AC88" s="18"/>
     </row>
-    <row r="89" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="89" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="30">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
@@ -14785,13 +14817,13 @@
       <c r="AB89" s="18"/>
       <c r="AC89" s="18"/>
     </row>
-    <row r="90" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="90" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="30">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>124</v>
+        <v>431</v>
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
@@ -14821,13 +14853,13 @@
       <c r="AB90" s="18"/>
       <c r="AC90" s="18"/>
     </row>
-    <row r="91" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="91" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="30">
         <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="B91" s="27" t="s">
-        <v>399</v>
+      <c r="B91" s="24" t="s">
+        <v>434</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
@@ -14857,13 +14889,13 @@
       <c r="AB91" s="18"/>
       <c r="AC91" s="18"/>
     </row>
-    <row r="92" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="92" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="30">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="B92" s="26" t="s">
-        <v>400</v>
+      <c r="B92" s="24" t="s">
+        <v>435</v>
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="18"/>
@@ -14893,13 +14925,13 @@
       <c r="AB92" s="18"/>
       <c r="AC92" s="18"/>
     </row>
-    <row r="93" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="93" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="30">
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
@@ -14929,13 +14961,13 @@
       <c r="AB93" s="18"/>
       <c r="AC93" s="18"/>
     </row>
-    <row r="94" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="94" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="30">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="B94" s="24" t="s">
-        <v>437</v>
+      <c r="B94" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="C94" s="18"/>
       <c r="D94" s="18"/>
@@ -14965,13 +14997,13 @@
       <c r="AB94" s="18"/>
       <c r="AC94" s="18"/>
     </row>
-    <row r="95" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="95" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="30">
-        <f t="shared" si="4"/>
+        <f>A94+1</f>
         <v>93</v>
       </c>
-      <c r="B95" s="24" t="s">
-        <v>438</v>
+      <c r="B95" s="26" t="s">
+        <v>436</v>
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
@@ -15001,13 +15033,13 @@
       <c r="AB95" s="18"/>
       <c r="AC95" s="18"/>
     </row>
-    <row r="96" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="96" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A96:A98" si="5">A95+1</f>
         <v>94</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="18"/>
@@ -15037,13 +15069,13 @@
       <c r="AB96" s="18"/>
       <c r="AC96" s="18"/>
     </row>
-    <row r="97" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="97" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="C97" s="18"/>
       <c r="D97" s="18"/>
@@ -15073,13 +15105,13 @@
       <c r="AB97" s="18"/>
       <c r="AC97" s="18"/>
     </row>
-    <row r="98" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="98" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="18"/>
@@ -15109,14 +15141,15 @@
       <c r="AB98" s="18"/>
       <c r="AC98" s="18"/>
     </row>
-    <row r="99" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="99" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="30">
-        <v>101</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C99" s="18"/>
+        <f t="shared" ref="A99:A113" si="6">A98+1</f>
+        <v>97</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="C99" s="20"/>
       <c r="D99" s="18"/>
       <c r="E99" s="18"/>
       <c r="F99" s="18"/>
@@ -15144,13 +15177,13 @@
       <c r="AB99" s="18"/>
       <c r="AC99" s="18"/>
     </row>
-    <row r="100" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="100" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="30">
-        <f>A99+1</f>
-        <v>102</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>439</v>
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>424</v>
       </c>
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
@@ -15180,13 +15213,13 @@
       <c r="AB100" s="18"/>
       <c r="AC100" s="18"/>
     </row>
-    <row r="101" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="101" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="30">
-        <f t="shared" ref="A101:A118" si="5">A100+1</f>
-        <v>103</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>419</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>430</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
@@ -15216,15 +15249,15 @@
       <c r="AB101" s="18"/>
       <c r="AC101" s="18"/>
     </row>
-    <row r="102" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="102" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="30">
-        <f t="shared" si="5"/>
-        <v>104</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="C102" s="20"/>
+        <v>429</v>
+      </c>
+      <c r="C102" s="18"/>
       <c r="D102" s="18"/>
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
@@ -15252,13 +15285,13 @@
       <c r="AB102" s="18"/>
       <c r="AC102" s="18"/>
     </row>
-    <row r="103" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="103" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="30">
-        <f t="shared" si="5"/>
-        <v>105</v>
-      </c>
-      <c r="B103" s="24" t="s">
-        <v>426</v>
+        <f t="shared" si="6"/>
+        <v>101</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>449</v>
       </c>
       <c r="C103" s="18"/>
       <c r="D103" s="18"/>
@@ -15288,13 +15321,13 @@
       <c r="AB103" s="18"/>
       <c r="AC103" s="18"/>
     </row>
-    <row r="104" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="104" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="30">
-        <f t="shared" si="5"/>
-        <v>106</v>
-      </c>
-      <c r="B104" s="24" t="s">
-        <v>432</v>
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>450</v>
       </c>
       <c r="C104" s="18"/>
       <c r="D104" s="18"/>
@@ -15324,13 +15357,13 @@
       <c r="AB104" s="18"/>
       <c r="AC104" s="18"/>
     </row>
-    <row r="105" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="105" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="30">
-        <f t="shared" si="5"/>
-        <v>107</v>
+        <f t="shared" si="6"/>
+        <v>103</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="C105" s="18"/>
       <c r="D105" s="18"/>
@@ -15360,13 +15393,13 @@
       <c r="AB105" s="18"/>
       <c r="AC105" s="18"/>
     </row>
-    <row r="106" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="106" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="30">
-        <f t="shared" si="5"/>
-        <v>108</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>384</v>
+        <v>452</v>
       </c>
       <c r="C106" s="18"/>
       <c r="D106" s="18"/>
@@ -15396,13 +15429,13 @@
       <c r="AB106" s="18"/>
       <c r="AC106" s="18"/>
     </row>
-    <row r="107" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="107" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="30">
-        <f t="shared" si="5"/>
-        <v>109</v>
+        <f t="shared" si="6"/>
+        <v>105</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
@@ -15432,13 +15465,13 @@
       <c r="AB107" s="18"/>
       <c r="AC107" s="18"/>
     </row>
-    <row r="108" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="108" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="30">
-        <f t="shared" si="5"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>106</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C108" s="18"/>
       <c r="D108" s="18"/>
@@ -15468,13 +15501,13 @@
       <c r="AB108" s="18"/>
       <c r="AC108" s="18"/>
     </row>
-    <row r="109" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="109" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="30">
-        <f t="shared" si="5"/>
-        <v>111</v>
+        <f t="shared" si="6"/>
+        <v>107</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C109" s="18"/>
       <c r="D109" s="18"/>
@@ -15504,13 +15537,13 @@
       <c r="AB109" s="18"/>
       <c r="AC109" s="18"/>
     </row>
-    <row r="110" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="110" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="30">
-        <f t="shared" si="5"/>
-        <v>112</v>
+        <f t="shared" si="6"/>
+        <v>108</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="18"/>
@@ -15540,13 +15573,13 @@
       <c r="AB110" s="18"/>
       <c r="AC110" s="18"/>
     </row>
-    <row r="111" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="111" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="30">
-        <f t="shared" si="5"/>
-        <v>113</v>
+        <f t="shared" si="6"/>
+        <v>109</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C111" s="18"/>
       <c r="D111" s="18"/>
@@ -15576,13 +15609,13 @@
       <c r="AB111" s="18"/>
       <c r="AC111" s="18"/>
     </row>
-    <row r="112" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="112" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="30">
-        <f t="shared" si="5"/>
-        <v>114</v>
+        <f t="shared" si="6"/>
+        <v>110</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="C112" s="18"/>
       <c r="D112" s="18"/>
@@ -15612,12 +15645,14 @@
       <c r="AB112" s="18"/>
       <c r="AC112" s="18"/>
     </row>
-    <row r="113" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="113" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="30">
-        <f t="shared" si="5"/>
-        <v>115</v>
-      </c>
-      <c r="B113" s="26"/>
+        <f t="shared" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="B113" s="26" t="s">
+        <v>460</v>
+      </c>
       <c r="C113" s="18"/>
       <c r="D113" s="18"/>
       <c r="E113" s="18"/>
@@ -15646,12 +15681,14 @@
       <c r="AB113" s="18"/>
       <c r="AC113" s="18"/>
     </row>
-    <row r="114" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="114" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="30">
-        <f t="shared" si="5"/>
-        <v>116</v>
-      </c>
-      <c r="B114" s="26"/>
+        <f>A113+1</f>
+        <v>112</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>462</v>
+      </c>
       <c r="C114" s="18"/>
       <c r="D114" s="18"/>
       <c r="E114" s="18"/>
@@ -15680,12 +15717,14 @@
       <c r="AB114" s="18"/>
       <c r="AC114" s="18"/>
     </row>
-    <row r="115" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="115" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="30">
-        <f t="shared" si="5"/>
-        <v>117</v>
-      </c>
-      <c r="B115" s="26"/>
+        <f t="shared" ref="A115:A133" si="7">A114+1</f>
+        <v>113</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>463</v>
+      </c>
       <c r="C115" s="18"/>
       <c r="D115" s="18"/>
       <c r="E115" s="18"/>
@@ -15714,12 +15753,14 @@
       <c r="AB115" s="18"/>
       <c r="AC115" s="18"/>
     </row>
-    <row r="116" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="116" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="30">
-        <f t="shared" si="5"/>
-        <v>118</v>
-      </c>
-      <c r="B116" s="26"/>
+        <f t="shared" si="7"/>
+        <v>114</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>464</v>
+      </c>
       <c r="C116" s="18"/>
       <c r="D116" s="18"/>
       <c r="E116" s="18"/>
@@ -15748,12 +15789,14 @@
       <c r="AB116" s="18"/>
       <c r="AC116" s="18"/>
     </row>
-    <row r="117" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="117" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="30">
-        <f t="shared" si="5"/>
-        <v>119</v>
-      </c>
-      <c r="B117" s="26"/>
+        <f t="shared" si="7"/>
+        <v>115</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>465</v>
+      </c>
       <c r="C117" s="18"/>
       <c r="D117" s="18"/>
       <c r="E117" s="18"/>
@@ -15782,12 +15825,12 @@
       <c r="AB117" s="18"/>
       <c r="AC117" s="18"/>
     </row>
-    <row r="118" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="118" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="30">
-        <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="B118" s="26"/>
+        <f t="shared" si="7"/>
+        <v>116</v>
+      </c>
+      <c r="B118" s="24"/>
       <c r="C118" s="18"/>
       <c r="D118" s="18"/>
       <c r="E118" s="18"/>
@@ -15816,9 +15859,10 @@
       <c r="AB118" s="18"/>
       <c r="AC118" s="18"/>
     </row>
-    <row r="119" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="119" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="30">
-        <v>121</v>
+        <f t="shared" si="7"/>
+        <v>117</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="18"/>
@@ -15849,12 +15893,14 @@
       <c r="AB119" s="18"/>
       <c r="AC119" s="18"/>
     </row>
-    <row r="120" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="120" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="30">
-        <f>A119+1</f>
-        <v>122</v>
-      </c>
-      <c r="B120" s="24"/>
+        <f t="shared" si="7"/>
+        <v>118</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>414</v>
+      </c>
       <c r="C120" s="18"/>
       <c r="D120" s="18"/>
       <c r="E120" s="18"/>
@@ -15883,12 +15929,12 @@
       <c r="AB120" s="18"/>
       <c r="AC120" s="18"/>
     </row>
-    <row r="121" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="121" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="30">
-        <f t="shared" ref="A121:A138" si="6">A120+1</f>
-        <v>123</v>
-      </c>
-      <c r="B121" s="24"/>
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+      <c r="B121" s="26"/>
       <c r="C121" s="18"/>
       <c r="D121" s="18"/>
       <c r="E121" s="18"/>
@@ -15917,10 +15963,10 @@
       <c r="AB121" s="18"/>
       <c r="AC121" s="18"/>
     </row>
-    <row r="122" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="122" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="30">
-        <f t="shared" si="6"/>
-        <v>124</v>
+        <f t="shared" si="7"/>
+        <v>120</v>
       </c>
       <c r="B122" s="26"/>
       <c r="C122" s="18"/>
@@ -15951,10 +15997,10 @@
       <c r="AB122" s="18"/>
       <c r="AC122" s="18"/>
     </row>
-    <row r="123" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="123" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="30">
-        <f t="shared" si="6"/>
-        <v>125</v>
+        <f t="shared" si="7"/>
+        <v>121</v>
       </c>
       <c r="B123" s="26"/>
       <c r="C123" s="18"/>
@@ -15985,12 +16031,12 @@
       <c r="AB123" s="18"/>
       <c r="AC123" s="18"/>
     </row>
-    <row r="124" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="124" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="30">
-        <f t="shared" si="6"/>
-        <v>126</v>
-      </c>
-      <c r="B124" s="24"/>
+        <f t="shared" si="7"/>
+        <v>122</v>
+      </c>
+      <c r="B124" s="26"/>
       <c r="C124" s="18"/>
       <c r="D124" s="18"/>
       <c r="E124" s="18"/>
@@ -16019,12 +16065,12 @@
       <c r="AB124" s="18"/>
       <c r="AC124" s="18"/>
     </row>
-    <row r="125" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="125" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="30">
-        <f t="shared" si="6"/>
-        <v>127</v>
-      </c>
-      <c r="B125" s="24"/>
+        <f t="shared" si="7"/>
+        <v>123</v>
+      </c>
+      <c r="B125" s="26"/>
       <c r="C125" s="18"/>
       <c r="D125" s="18"/>
       <c r="E125" s="18"/>
@@ -16053,14 +16099,12 @@
       <c r="AB125" s="18"/>
       <c r="AC125" s="18"/>
     </row>
-    <row r="126" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="126" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="30">
-        <f t="shared" si="6"/>
-        <v>128</v>
-      </c>
-      <c r="B126" s="26" t="s">
-        <v>416</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>124</v>
+      </c>
+      <c r="B126" s="26"/>
       <c r="C126" s="18"/>
       <c r="D126" s="18"/>
       <c r="E126" s="18"/>
@@ -16089,10 +16133,10 @@
       <c r="AB126" s="18"/>
       <c r="AC126" s="18"/>
     </row>
-    <row r="127" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="127" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="30">
-        <f t="shared" si="6"/>
-        <v>129</v>
+        <f t="shared" si="7"/>
+        <v>125</v>
       </c>
       <c r="B127" s="26"/>
       <c r="C127" s="18"/>
@@ -16123,10 +16167,10 @@
       <c r="AB127" s="18"/>
       <c r="AC127" s="18"/>
     </row>
-    <row r="128" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="128" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="30">
-        <f t="shared" si="6"/>
-        <v>130</v>
+        <f t="shared" si="7"/>
+        <v>126</v>
       </c>
       <c r="B128" s="26"/>
       <c r="C128" s="18"/>
@@ -16157,10 +16201,10 @@
       <c r="AB128" s="18"/>
       <c r="AC128" s="18"/>
     </row>
-    <row r="129" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="129" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="30">
-        <f t="shared" si="6"/>
-        <v>131</v>
+        <f t="shared" si="7"/>
+        <v>127</v>
       </c>
       <c r="B129" s="26"/>
       <c r="C129" s="18"/>
@@ -16191,10 +16235,10 @@
       <c r="AB129" s="18"/>
       <c r="AC129" s="18"/>
     </row>
-    <row r="130" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="130" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="30">
-        <f t="shared" si="6"/>
-        <v>132</v>
+        <f t="shared" si="7"/>
+        <v>128</v>
       </c>
       <c r="B130" s="26"/>
       <c r="C130" s="18"/>
@@ -16225,10 +16269,10 @@
       <c r="AB130" s="18"/>
       <c r="AC130" s="18"/>
     </row>
-    <row r="131" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="131" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="30">
-        <f t="shared" si="6"/>
-        <v>133</v>
+        <f t="shared" si="7"/>
+        <v>129</v>
       </c>
       <c r="B131" s="26"/>
       <c r="C131" s="18"/>
@@ -16259,10 +16303,10 @@
       <c r="AB131" s="18"/>
       <c r="AC131" s="18"/>
     </row>
-    <row r="132" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="132" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="30">
-        <f t="shared" si="6"/>
-        <v>134</v>
+        <f t="shared" si="7"/>
+        <v>130</v>
       </c>
       <c r="B132" s="26"/>
       <c r="C132" s="18"/>
@@ -16293,10 +16337,10 @@
       <c r="AB132" s="18"/>
       <c r="AC132" s="18"/>
     </row>
-    <row r="133" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="133" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="30">
-        <f t="shared" si="6"/>
-        <v>135</v>
+        <f t="shared" si="7"/>
+        <v>131</v>
       </c>
       <c r="B133" s="26"/>
       <c r="C133" s="18"/>
@@ -16327,10 +16371,10 @@
       <c r="AB133" s="18"/>
       <c r="AC133" s="18"/>
     </row>
-    <row r="134" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="134" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="30">
-        <f t="shared" si="6"/>
-        <v>136</v>
+        <f>A133+1</f>
+        <v>132</v>
       </c>
       <c r="B134" s="26"/>
       <c r="C134" s="18"/>
@@ -16361,10 +16405,10 @@
       <c r="AB134" s="18"/>
       <c r="AC134" s="18"/>
     </row>
-    <row r="135" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="135" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="30">
-        <f t="shared" si="6"/>
-        <v>137</v>
+        <f t="shared" ref="A135:A153" si="8">A134+1</f>
+        <v>133</v>
       </c>
       <c r="B135" s="26"/>
       <c r="C135" s="18"/>
@@ -16395,10 +16439,10 @@
       <c r="AB135" s="18"/>
       <c r="AC135" s="18"/>
     </row>
-    <row r="136" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="136" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="30">
-        <f t="shared" si="6"/>
-        <v>138</v>
+        <f t="shared" si="8"/>
+        <v>134</v>
       </c>
       <c r="B136" s="26"/>
       <c r="C136" s="18"/>
@@ -16429,10 +16473,10 @@
       <c r="AB136" s="18"/>
       <c r="AC136" s="18"/>
     </row>
-    <row r="137" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="137" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="30">
-        <f t="shared" si="6"/>
-        <v>139</v>
+        <f t="shared" si="8"/>
+        <v>135</v>
       </c>
       <c r="B137" s="26"/>
       <c r="C137" s="18"/>
@@ -16463,10 +16507,10 @@
       <c r="AB137" s="18"/>
       <c r="AC137" s="18"/>
     </row>
-    <row r="138" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="138" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="30">
-        <f t="shared" si="6"/>
-        <v>140</v>
+        <f t="shared" si="8"/>
+        <v>136</v>
       </c>
       <c r="B138" s="26"/>
       <c r="C138" s="18"/>
@@ -16497,9 +16541,10 @@
       <c r="AB138" s="18"/>
       <c r="AC138" s="18"/>
     </row>
-    <row r="139" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="139" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="30">
-        <v>141</v>
+        <f t="shared" si="8"/>
+        <v>137</v>
       </c>
       <c r="B139" s="26"/>
       <c r="C139" s="18"/>
@@ -16530,10 +16575,10 @@
       <c r="AB139" s="18"/>
       <c r="AC139" s="18"/>
     </row>
-    <row r="140" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="140" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="30">
-        <f>A139+1</f>
-        <v>142</v>
+        <f t="shared" si="8"/>
+        <v>138</v>
       </c>
       <c r="B140" s="26"/>
       <c r="C140" s="18"/>
@@ -16564,10 +16609,10 @@
       <c r="AB140" s="18"/>
       <c r="AC140" s="18"/>
     </row>
-    <row r="141" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="141" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="30">
-        <f t="shared" ref="A141:A158" si="7">A140+1</f>
-        <v>143</v>
+        <f t="shared" si="8"/>
+        <v>139</v>
       </c>
       <c r="B141" s="26"/>
       <c r="C141" s="18"/>
@@ -16598,10 +16643,10 @@
       <c r="AB141" s="18"/>
       <c r="AC141" s="18"/>
     </row>
-    <row r="142" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="142" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="30">
-        <f t="shared" si="7"/>
-        <v>144</v>
+        <f t="shared" si="8"/>
+        <v>140</v>
       </c>
       <c r="B142" s="26"/>
       <c r="C142" s="18"/>
@@ -16632,10 +16677,10 @@
       <c r="AB142" s="18"/>
       <c r="AC142" s="18"/>
     </row>
-    <row r="143" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="143" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="30">
-        <f t="shared" si="7"/>
-        <v>145</v>
+        <f t="shared" si="8"/>
+        <v>141</v>
       </c>
       <c r="B143" s="26"/>
       <c r="C143" s="18"/>
@@ -16666,10 +16711,10 @@
       <c r="AB143" s="18"/>
       <c r="AC143" s="18"/>
     </row>
-    <row r="144" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="144" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="30">
-        <f t="shared" si="7"/>
-        <v>146</v>
+        <f t="shared" si="8"/>
+        <v>142</v>
       </c>
       <c r="B144" s="26"/>
       <c r="C144" s="18"/>
@@ -16700,10 +16745,10 @@
       <c r="AB144" s="18"/>
       <c r="AC144" s="18"/>
     </row>
-    <row r="145" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="145" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="30">
-        <f t="shared" si="7"/>
-        <v>147</v>
+        <f t="shared" si="8"/>
+        <v>143</v>
       </c>
       <c r="B145" s="26"/>
       <c r="C145" s="18"/>
@@ -16734,10 +16779,10 @@
       <c r="AB145" s="18"/>
       <c r="AC145" s="18"/>
     </row>
-    <row r="146" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="146" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="30">
-        <f t="shared" si="7"/>
-        <v>148</v>
+        <f t="shared" si="8"/>
+        <v>144</v>
       </c>
       <c r="B146" s="26"/>
       <c r="C146" s="18"/>
@@ -16768,10 +16813,10 @@
       <c r="AB146" s="18"/>
       <c r="AC146" s="18"/>
     </row>
-    <row r="147" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="147" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="30">
-        <f t="shared" si="7"/>
-        <v>149</v>
+        <f t="shared" si="8"/>
+        <v>145</v>
       </c>
       <c r="B147" s="26"/>
       <c r="C147" s="18"/>
@@ -16802,10 +16847,10 @@
       <c r="AB147" s="18"/>
       <c r="AC147" s="18"/>
     </row>
-    <row r="148" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="148" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="30">
-        <f t="shared" si="7"/>
-        <v>150</v>
+        <f t="shared" si="8"/>
+        <v>146</v>
       </c>
       <c r="B148" s="26"/>
       <c r="C148" s="18"/>
@@ -16836,10 +16881,10 @@
       <c r="AB148" s="18"/>
       <c r="AC148" s="18"/>
     </row>
-    <row r="149" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="149" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="30">
-        <f t="shared" si="7"/>
-        <v>151</v>
+        <f t="shared" si="8"/>
+        <v>147</v>
       </c>
       <c r="B149" s="26"/>
       <c r="C149" s="18"/>
@@ -16870,10 +16915,10 @@
       <c r="AB149" s="18"/>
       <c r="AC149" s="18"/>
     </row>
-    <row r="150" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="150" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="30">
-        <f t="shared" si="7"/>
-        <v>152</v>
+        <f t="shared" si="8"/>
+        <v>148</v>
       </c>
       <c r="B150" s="26"/>
       <c r="C150" s="18"/>
@@ -16904,10 +16949,10 @@
       <c r="AB150" s="18"/>
       <c r="AC150" s="18"/>
     </row>
-    <row r="151" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="151" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="30">
-        <f t="shared" si="7"/>
-        <v>153</v>
+        <f t="shared" si="8"/>
+        <v>149</v>
       </c>
       <c r="B151" s="26"/>
       <c r="C151" s="18"/>
@@ -16938,10 +16983,10 @@
       <c r="AB151" s="18"/>
       <c r="AC151" s="18"/>
     </row>
-    <row r="152" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="152" spans="1:29" s="19" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="30">
-        <f t="shared" si="7"/>
-        <v>154</v>
+        <f t="shared" si="8"/>
+        <v>150</v>
       </c>
       <c r="B152" s="26"/>
       <c r="C152" s="18"/>
@@ -16972,12 +17017,12 @@
       <c r="AB152" s="18"/>
       <c r="AC152" s="18"/>
     </row>
-    <row r="153" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="153" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="30">
-        <f t="shared" si="7"/>
-        <v>155</v>
-      </c>
-      <c r="B153" s="26"/>
+        <f t="shared" si="8"/>
+        <v>151</v>
+      </c>
+      <c r="B153" s="24"/>
       <c r="C153" s="18"/>
       <c r="D153" s="18"/>
       <c r="E153" s="18"/>
@@ -17006,12 +17051,12 @@
       <c r="AB153" s="18"/>
       <c r="AC153" s="18"/>
     </row>
-    <row r="154" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="154" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="30">
-        <f t="shared" si="7"/>
-        <v>156</v>
-      </c>
-      <c r="B154" s="26"/>
+        <f>A153+1</f>
+        <v>152</v>
+      </c>
+      <c r="B154" s="24"/>
       <c r="C154" s="18"/>
       <c r="D154" s="18"/>
       <c r="E154" s="18"/>
@@ -17040,12 +17085,12 @@
       <c r="AB154" s="18"/>
       <c r="AC154" s="18"/>
     </row>
-    <row r="155" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="155" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="30">
-        <f t="shared" si="7"/>
-        <v>157</v>
-      </c>
-      <c r="B155" s="26"/>
+        <f t="shared" ref="A155:A172" si="9">A154+1</f>
+        <v>153</v>
+      </c>
+      <c r="B155" s="24"/>
       <c r="C155" s="18"/>
       <c r="D155" s="18"/>
       <c r="E155" s="18"/>
@@ -17074,12 +17119,12 @@
       <c r="AB155" s="18"/>
       <c r="AC155" s="18"/>
     </row>
-    <row r="156" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="156" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="30">
-        <f t="shared" si="7"/>
-        <v>158</v>
-      </c>
-      <c r="B156" s="26"/>
+        <f t="shared" si="9"/>
+        <v>154</v>
+      </c>
+      <c r="B156" s="24"/>
       <c r="C156" s="18"/>
       <c r="D156" s="18"/>
       <c r="E156" s="18"/>
@@ -17108,12 +17153,12 @@
       <c r="AB156" s="18"/>
       <c r="AC156" s="18"/>
     </row>
-    <row r="157" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="157" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="30">
-        <f t="shared" si="7"/>
-        <v>159</v>
-      </c>
-      <c r="B157" s="26"/>
+        <f t="shared" si="9"/>
+        <v>155</v>
+      </c>
+      <c r="B157" s="24"/>
       <c r="C157" s="18"/>
       <c r="D157" s="18"/>
       <c r="E157" s="18"/>
@@ -17142,12 +17187,12 @@
       <c r="AB157" s="18"/>
       <c r="AC157" s="18"/>
     </row>
-    <row r="158" spans="1:29" s="19" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+    <row r="158" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="30">
-        <f t="shared" si="7"/>
-        <v>160</v>
-      </c>
-      <c r="B158" s="26"/>
+        <f t="shared" si="9"/>
+        <v>156</v>
+      </c>
+      <c r="B158" s="24"/>
       <c r="C158" s="18"/>
       <c r="D158" s="18"/>
       <c r="E158" s="18"/>
@@ -17176,9 +17221,10 @@
       <c r="AB158" s="18"/>
       <c r="AC158" s="18"/>
     </row>
-    <row r="159" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="159" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="30">
-        <v>161</v>
+        <f t="shared" si="9"/>
+        <v>157</v>
       </c>
       <c r="B159" s="24"/>
       <c r="C159" s="18"/>
@@ -17209,10 +17255,10 @@
       <c r="AB159" s="18"/>
       <c r="AC159" s="18"/>
     </row>
-    <row r="160" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="160" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="30">
-        <f>A159+1</f>
-        <v>162</v>
+        <f t="shared" si="9"/>
+        <v>158</v>
       </c>
       <c r="B160" s="24"/>
       <c r="C160" s="18"/>
@@ -17243,10 +17289,10 @@
       <c r="AB160" s="18"/>
       <c r="AC160" s="18"/>
     </row>
-    <row r="161" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="161" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="30">
-        <f t="shared" ref="A161:A178" si="8">A160+1</f>
-        <v>163</v>
+        <f t="shared" si="9"/>
+        <v>159</v>
       </c>
       <c r="B161" s="24"/>
       <c r="C161" s="18"/>
@@ -17277,10 +17323,10 @@
       <c r="AB161" s="18"/>
       <c r="AC161" s="18"/>
     </row>
-    <row r="162" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="162" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="30">
-        <f t="shared" si="8"/>
-        <v>164</v>
+        <f t="shared" si="9"/>
+        <v>160</v>
       </c>
       <c r="B162" s="24"/>
       <c r="C162" s="18"/>
@@ -17311,10 +17357,10 @@
       <c r="AB162" s="18"/>
       <c r="AC162" s="18"/>
     </row>
-    <row r="163" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="163" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="30">
-        <f t="shared" si="8"/>
-        <v>165</v>
+        <f t="shared" si="9"/>
+        <v>161</v>
       </c>
       <c r="B163" s="24"/>
       <c r="C163" s="18"/>
@@ -17345,12 +17391,12 @@
       <c r="AB163" s="18"/>
       <c r="AC163" s="18"/>
     </row>
-    <row r="164" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="164" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="30">
-        <f t="shared" si="8"/>
-        <v>166</v>
-      </c>
-      <c r="B164" s="24"/>
+        <f t="shared" si="9"/>
+        <v>162</v>
+      </c>
+      <c r="B164" s="35"/>
       <c r="C164" s="18"/>
       <c r="D164" s="18"/>
       <c r="E164" s="18"/>
@@ -17379,10 +17425,10 @@
       <c r="AB164" s="18"/>
       <c r="AC164" s="18"/>
     </row>
-    <row r="165" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="165" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="30">
-        <f t="shared" si="8"/>
-        <v>167</v>
+        <f t="shared" si="9"/>
+        <v>163</v>
       </c>
       <c r="B165" s="24"/>
       <c r="C165" s="18"/>
@@ -17413,12 +17459,12 @@
       <c r="AB165" s="18"/>
       <c r="AC165" s="18"/>
     </row>
-    <row r="166" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="166" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="30">
-        <f t="shared" si="8"/>
-        <v>168</v>
-      </c>
-      <c r="B166" s="24"/>
+        <f t="shared" si="9"/>
+        <v>164</v>
+      </c>
+      <c r="B166" s="35"/>
       <c r="C166" s="18"/>
       <c r="D166" s="18"/>
       <c r="E166" s="18"/>
@@ -17447,10 +17493,10 @@
       <c r="AB166" s="18"/>
       <c r="AC166" s="18"/>
     </row>
-    <row r="167" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="167" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="30">
-        <f t="shared" si="8"/>
-        <v>169</v>
+        <f t="shared" si="9"/>
+        <v>165</v>
       </c>
       <c r="B167" s="24"/>
       <c r="C167" s="18"/>
@@ -17481,12 +17527,12 @@
       <c r="AB167" s="18"/>
       <c r="AC167" s="18"/>
     </row>
-    <row r="168" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="168" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="30">
-        <f t="shared" si="8"/>
-        <v>170</v>
-      </c>
-      <c r="B168" s="24"/>
+        <f t="shared" si="9"/>
+        <v>166</v>
+      </c>
+      <c r="B168" s="35"/>
       <c r="C168" s="18"/>
       <c r="D168" s="18"/>
       <c r="E168" s="18"/>
@@ -17515,10 +17561,10 @@
       <c r="AB168" s="18"/>
       <c r="AC168" s="18"/>
     </row>
-    <row r="169" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="30">
-        <f t="shared" si="8"/>
-        <v>171</v>
+        <f t="shared" si="9"/>
+        <v>167</v>
       </c>
       <c r="B169" s="24"/>
       <c r="C169" s="18"/>
@@ -17549,10 +17595,10 @@
       <c r="AB169" s="18"/>
       <c r="AC169" s="18"/>
     </row>
-    <row r="170" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="30">
-        <f t="shared" si="8"/>
-        <v>172</v>
+        <f t="shared" si="9"/>
+        <v>168</v>
       </c>
       <c r="B170" s="35"/>
       <c r="C170" s="18"/>
@@ -17583,10 +17629,10 @@
       <c r="AB170" s="18"/>
       <c r="AC170" s="18"/>
     </row>
-    <row r="171" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="171" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="30">
-        <f t="shared" si="8"/>
-        <v>173</v>
+        <f t="shared" si="9"/>
+        <v>169</v>
       </c>
       <c r="B171" s="24"/>
       <c r="C171" s="18"/>
@@ -17617,12 +17663,12 @@
       <c r="AB171" s="18"/>
       <c r="AC171" s="18"/>
     </row>
-    <row r="172" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
+    <row r="172" spans="1:29" s="19" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="30">
-        <f t="shared" si="8"/>
-        <v>174</v>
-      </c>
-      <c r="B172" s="35"/>
+        <f t="shared" si="9"/>
+        <v>170</v>
+      </c>
+      <c r="B172" s="24"/>
       <c r="C172" s="18"/>
       <c r="D172" s="18"/>
       <c r="E172" s="18"/>
@@ -17651,210 +17697,6 @@
       <c r="AB172" s="18"/>
       <c r="AC172" s="18"/>
     </row>
-    <row r="173" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
-      <c r="A173" s="30">
-        <f t="shared" si="8"/>
-        <v>175</v>
-      </c>
-      <c r="B173" s="24"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="18"/>
-      <c r="I173" s="18"/>
-      <c r="J173" s="18"/>
-      <c r="K173" s="18"/>
-      <c r="L173" s="18"/>
-      <c r="M173" s="18"/>
-      <c r="N173" s="18"/>
-      <c r="O173" s="18"/>
-      <c r="P173" s="18"/>
-      <c r="Q173" s="18"/>
-      <c r="R173" s="18"/>
-      <c r="S173" s="18"/>
-      <c r="T173" s="18"/>
-      <c r="U173" s="18"/>
-      <c r="V173" s="18"/>
-      <c r="W173" s="18"/>
-      <c r="X173" s="18"/>
-      <c r="Y173" s="18"/>
-      <c r="Z173" s="18"/>
-      <c r="AA173" s="18"/>
-      <c r="AB173" s="18"/>
-      <c r="AC173" s="18"/>
-    </row>
-    <row r="174" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
-      <c r="A174" s="30">
-        <f t="shared" si="8"/>
-        <v>176</v>
-      </c>
-      <c r="B174" s="35"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18"/>
-      <c r="I174" s="18"/>
-      <c r="J174" s="18"/>
-      <c r="K174" s="18"/>
-      <c r="L174" s="18"/>
-      <c r="M174" s="18"/>
-      <c r="N174" s="18"/>
-      <c r="O174" s="18"/>
-      <c r="P174" s="18"/>
-      <c r="Q174" s="18"/>
-      <c r="R174" s="18"/>
-      <c r="S174" s="18"/>
-      <c r="T174" s="18"/>
-      <c r="U174" s="18"/>
-      <c r="V174" s="18"/>
-      <c r="W174" s="18"/>
-      <c r="X174" s="18"/>
-      <c r="Y174" s="18"/>
-      <c r="Z174" s="18"/>
-      <c r="AA174" s="18"/>
-      <c r="AB174" s="18"/>
-      <c r="AC174" s="18"/>
-    </row>
-    <row r="175" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
-      <c r="A175" s="30">
-        <f t="shared" si="8"/>
-        <v>177</v>
-      </c>
-      <c r="B175" s="24"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="18"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="18"/>
-      <c r="I175" s="18"/>
-      <c r="J175" s="18"/>
-      <c r="K175" s="18"/>
-      <c r="L175" s="18"/>
-      <c r="M175" s="18"/>
-      <c r="N175" s="18"/>
-      <c r="O175" s="18"/>
-      <c r="P175" s="18"/>
-      <c r="Q175" s="18"/>
-      <c r="R175" s="18"/>
-      <c r="S175" s="18"/>
-      <c r="T175" s="18"/>
-      <c r="U175" s="18"/>
-      <c r="V175" s="18"/>
-      <c r="W175" s="18"/>
-      <c r="X175" s="18"/>
-      <c r="Y175" s="18"/>
-      <c r="Z175" s="18"/>
-      <c r="AA175" s="18"/>
-      <c r="AB175" s="18"/>
-      <c r="AC175" s="18"/>
-    </row>
-    <row r="176" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
-      <c r="A176" s="30">
-        <f t="shared" si="8"/>
-        <v>178</v>
-      </c>
-      <c r="B176" s="35"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="18"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18"/>
-      <c r="I176" s="18"/>
-      <c r="J176" s="18"/>
-      <c r="K176" s="18"/>
-      <c r="L176" s="18"/>
-      <c r="M176" s="18"/>
-      <c r="N176" s="18"/>
-      <c r="O176" s="18"/>
-      <c r="P176" s="18"/>
-      <c r="Q176" s="18"/>
-      <c r="R176" s="18"/>
-      <c r="S176" s="18"/>
-      <c r="T176" s="18"/>
-      <c r="U176" s="18"/>
-      <c r="V176" s="18"/>
-      <c r="W176" s="18"/>
-      <c r="X176" s="18"/>
-      <c r="Y176" s="18"/>
-      <c r="Z176" s="18"/>
-      <c r="AA176" s="18"/>
-      <c r="AB176" s="18"/>
-      <c r="AC176" s="18"/>
-    </row>
-    <row r="177" spans="1:29" s="19" customFormat="1" ht="29.15" customHeight="1" thickBot="1">
-      <c r="A177" s="30">
-        <f t="shared" si="8"/>
-        <v>179</v>
-      </c>
-      <c r="B177" s="24"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18"/>
-      <c r="I177" s="18"/>
-      <c r="J177" s="18"/>
-      <c r="K177" s="18"/>
-      <c r="L177" s="18"/>
-      <c r="M177" s="18"/>
-      <c r="N177" s="18"/>
-      <c r="O177" s="18"/>
-      <c r="P177" s="18"/>
-      <c r="Q177" s="18"/>
-      <c r="R177" s="18"/>
-      <c r="S177" s="18"/>
-      <c r="T177" s="18"/>
-      <c r="U177" s="18"/>
-      <c r="V177" s="18"/>
-      <c r="W177" s="18"/>
-      <c r="X177" s="18"/>
-      <c r="Y177" s="18"/>
-      <c r="Z177" s="18"/>
-      <c r="AA177" s="18"/>
-      <c r="AB177" s="18"/>
-      <c r="AC177" s="18"/>
-    </row>
-    <row r="178" spans="1:29" s="19" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A178" s="30">
-        <f t="shared" si="8"/>
-        <v>180</v>
-      </c>
-      <c r="B178" s="24"/>
-      <c r="C178" s="18"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
-      <c r="I178" s="18"/>
-      <c r="J178" s="18"/>
-      <c r="K178" s="18"/>
-      <c r="L178" s="18"/>
-      <c r="M178" s="18"/>
-      <c r="N178" s="18"/>
-      <c r="O178" s="18"/>
-      <c r="P178" s="18"/>
-      <c r="Q178" s="18"/>
-      <c r="R178" s="18"/>
-      <c r="S178" s="18"/>
-      <c r="T178" s="18"/>
-      <c r="U178" s="18"/>
-      <c r="V178" s="18"/>
-      <c r="W178" s="18"/>
-      <c r="X178" s="18"/>
-      <c r="Y178" s="18"/>
-      <c r="Z178" s="18"/>
-      <c r="AA178" s="18"/>
-      <c r="AB178" s="18"/>
-      <c r="AC178" s="18"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
